--- a/public/data/products.xlsx
+++ b/public/data/products.xlsx
@@ -3,12 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81863587-DF5F-5142-AABA-3D53AA47916A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C190E52B-352E-B844-8705-027E4058D17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
   <si>
     <t>id</t>
   </si>
@@ -518,13 +520,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -705,4 +707,101 @@
     <ignoredError sqref="A1:K1 A4:K5 A2:C2 E2 A3:C3 E3 H2:K2 G3:K3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECE19D2-5B04-DB41-99BD-C801396F87FB}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1">
+        <v>24899</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B7BBF4E-6513-354C-8E4F-A3FBC0A0CE69}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>